--- a/web_scraper/processed_judgements_final/new.-1072-2023-Sher-Zaman-Sec.302,-324.-life.-Allowed..xlsx
+++ b/web_scraper/processed_judgements_final/new.-1072-2023-Sher-Zaman-Sec.302,-324.-life.-Allowed..xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On January 26, 2021, Noor Rehman and his father, Gul Rahman, were going to their fields when they were allegedly attacked by Sher Zaman, who fired at them with a pistol. Gul Rahman died on the spot, while Noor Rehman escaped unhurt. Noor Rehman reported the incident to the police, and a case was registered against Sher Zaman under sections 302 (murder) and 324 (attempt to murder) of the Pakistan Penal Code.   * A person was killed in a shooting incident. * The complainant, who is the son of the deceased, reported the incident to the police on the spot. * The complainant claimed that he was with his father when he was shot, but the medical evidence suggests that the deceased received a firearm injury on the front of his neck, with an exit wound on the back of his shoulder. * The complainant did not receive any firearm injury despite being fired at. * The motive for the killing was stated to be an altercation between the accused and the deceased a few days before, but the prosecution failed to establish the cause of the altercation.  </t>
+          <t xml:space="preserve"> * On January 26, 2021, the complainant, Noor Rehman, and his father, Gul Rahman, were going to their fields when they were confronted by the accused, Sher Zaman, who took out a pistol and started firing at them. * Gul Rahman was hit and died on the spot, while Noor Rehman escaped unhurt. * The motive for the occurrence was an altercation between the deceased and the accused. * A case was registered against Sher Zaman under sections 302/324 PPC, and he was arrested and charged.   * The complainant reported that the appellant (accused) had killed his father, the deceased, in a shooting incident. * The incident allegedly occurred at a specific time and location, with the complainant being the sole eyewitness. * The complainant claimed that he was also fired at but did not receive any firearm injuries. * The deceased received a firearm injury on the front of his neck, with the bullet traveling from up to downward. * The motive for the killing was allegedly an altercation between the appellant and deceased a few days prior.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1. Noor Rehman (P.W.06) - stated that he and his father were going to their fields when Sher Zaman attacked them with a pistol. 2. Sajid Khan, ASI (P.W.4) - prepared the site plan and collected evidence from the spot. 3. Doctor who conducted the post-mortem examination (P.W.3) - stated that the deceased died due to gunshot wounds. 4. Investigating officer (P.W.4) - collected evidence and prepared the inquest report. 5. Scribe (P.W.04) - prepared the inquest report and statement of the complainant.   * The complainant, who is the sole eyewitness, but his testimony is questioned due to the delayed postmortem examination and the conflict between the medical evidence and his ocular account.  </t>
+          <t xml:space="preserve"> * Noor Rehman (P.W.06), the complainant, who stated that he and his father were going to their fields when the accused appeared and started firing at them. * Sajid Khan, ASI (P.W.4), who investigated the case and collected evidence from the scene. * Muhammad Ullah, P.W.3, a constable who escorted the dead body from the spot to the hospital. * The scribe who prepared the inquest report and injury sheet. * Noor Zaman and Shah Zaman, the complainant's cousins, who were supposed to have brought the police to the spot but were not examined.   * The complainant, who is the son of the deceased and the sole eyewitness to the incident. * The investigating officer, who failed to collect evidence on the cause of the altercation.  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The learned trial court convicted Sher Zaman under section 302 (murder) and sentenced him to imprisonment for life, with a fine of Rs. 100,000/-, and to undergo simple imprisonment for six months in default. He was also convicted under section 324 (attempt to murder) and sentenced to seven years' rigorous imprisonment with a fine of Rs. 10,000/- or simple imprisonment for one month in default.  The court held that the prosecution failed to establish the presence of the complainant at the spot, and the investigation was not conducted properly. The court was not convinced by the evidence presented by the prosecution and found that the complainant's statement was inconsistent and unreliable. The court also noted that the investigating officer failed to collect independent evidence and that the scribe's statement was not credible.  The court applied section 382-B of the Criminal Procedure Code, which grants the benefit of doubt to the accused in case of single accused. The court also relied on the case of Sardar Bibi and another vs. Munir Ahmad and others (2017 SCMR 344) to support its decision.  The judgment was delivered on May 29, 2024, and the appeal was filed by Sher Zaman against the judgment of the learned Additional Session Judge-I, Peshawar.  * The court holds that the prosecution failed to bring home guilt against the accused due to the lack of independent corroboration of the complainant's testimony, the delayed postmortem examination, and the conflict between the medical evidence and the ocular account. * The court also notes that the prosecution failed to establish the motive for the killing and that the accused's timely surrender to the police suggests that he was not guilty. * The court allows the criminal appeal and acquits the accused of the charge leveled against him, ordering his release forthwith if not required to be detained in any other criminal case. </t>
+          <t xml:space="preserve"> * The trial court convicted Sher Zaman of murder under section 302 PPC and sentenced him to imprisonment for life with a fine of Rs. 100,000/-. * The court also convicted him of attempt to murder under section 324 PPC and sentenced him to 7 years' imprisonment with a fine of Rs. 10,000/-. * The sentences were ordered to run concurrently. * The court extended the benefit of section 382-B Cr.P.C to the convict. * The judgment was upheld by the High Court, which found that the prosecution had failed to establish the presence of the complainant at the scene of the crime. * The court drew adverse inferences from the complainant's conduct, including his failure to inform the police immediately, his failure to accompany the dead body to the hospital, and the lack of independent evidence to support his claim. * The court also relied on the case of Sardar Bibi and another vs Munir Ahmad and others to support its findings.  * The court acquitted the appellant due to the prosecution's failure to prove its case beyond a reasonable doubt. * The court found that the complainant's testimony lacked confidence, and the medical evidence conflicted with the ocular account. * The court also noted that the prosecution failed to establish the motive for the killing and that the appellant's timely surrender to the local police suggested his bonafide. * The court applied the principles of law, including the need for independent corroboration of evidence and the importance of not relying solely on the testimony of a single eyewitness. * The court allowed the instant criminal appeal and acquitted the appellant of the charge leveled against him, ordering his release forthwith if not required to be detained in any other criminal case. </t>
         </is>
       </c>
     </row>
